--- a/Planilha_pac2.xlsx
+++ b/Planilha_pac2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Área de Trabalho\PAC 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Área de Trabalho\Projetos\PAC_2semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BE60EE-4CAC-4714-B8C7-012BA135325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD37EBD-9293-463E-ABDE-E43CE434288B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A4DBF408-C961-460A-9EE3-BF2AB613E54A}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{A4DBF408-C961-460A-9EE3-BF2AB613E54A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plano de teste" sheetId="2" r:id="rId1"/>
-    <sheet name="Casos de testes" sheetId="1" r:id="rId2"/>
+    <sheet name="Alunos" sheetId="3" r:id="rId1"/>
+    <sheet name="Plano de teste" sheetId="2" r:id="rId2"/>
+    <sheet name="Casos de testes" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -347,12 +348,33 @@
   <si>
     <t>1) O usuário clica no botão enviar 2) Sistema requer que o usuário coloque informações no campo "estado"</t>
   </si>
+  <si>
+    <t>PAC 2º Semestre</t>
+  </si>
+  <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
+    <t>Angelica Corrêa de Lara Gonçalves</t>
+  </si>
+  <si>
+    <t>Gabriel Correa</t>
+  </si>
+  <si>
+    <t>Gabriel Furquim da Silva</t>
+  </si>
+  <si>
+    <t>Gustavo Lipinski</t>
+  </si>
+  <si>
+    <t>Vinícius Vicenzo Padilha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +447,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +496,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -668,11 +719,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,24 +781,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -726,6 +790,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -759,24 +868,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,14 +886,41 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,13 +1235,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8B12A5-7491-4F61-B08E-B4AAC3FF94E2}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="B1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A622F76-518A-4F24-ABE8-A3A4BD4813BE}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -1133,223 +1347,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -1359,29 +1582,20 @@
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947B9DBB-8BF0-4DBD-A73C-B50E825E8355}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1396,26 +1610,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
